--- a/data/trans_orig/P33B_R5-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P33B_R5-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>39597</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>28780</v>
+        <v>29453</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>53069</v>
+        <v>53366</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07191286194312428</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05226850618573678</v>
+        <v>0.05349027863968611</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09638080376202002</v>
+        <v>0.09692075780680805</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>67</v>
@@ -762,19 +762,19 @@
         <v>46246</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>36017</v>
+        <v>36992</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>58060</v>
+        <v>59482</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.09468722454912651</v>
+        <v>0.09468722454912648</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07374324341345137</v>
+        <v>0.07574019558683005</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1188752405778114</v>
+        <v>0.1217865699332271</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>112</v>
@@ -783,19 +783,19 @@
         <v>85843</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>70484</v>
+        <v>70685</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>102728</v>
+        <v>102798</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.08261828497455352</v>
+        <v>0.08261828497455351</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.067836700687117</v>
+        <v>0.06803022143365882</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09886895237711378</v>
+        <v>0.09893643790064445</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>511021</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>497549</v>
+        <v>497252</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>521838</v>
+        <v>521165</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9280871380568758</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9036191962379803</v>
+        <v>0.9030792421931918</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9477314938142648</v>
+        <v>0.9465097213603139</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>619</v>
@@ -833,19 +833,19 @@
         <v>442165</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>430351</v>
+        <v>428929</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>452394</v>
+        <v>451419</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9053127754508735</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8811247594221888</v>
+        <v>0.8782134300667735</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9262567565865487</v>
+        <v>0.9242598044131701</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1128</v>
@@ -854,19 +854,19 @@
         <v>953186</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>936301</v>
+        <v>936231</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>968545</v>
+        <v>968344</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9173817150254465</v>
+        <v>0.9173817150254464</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9011310476228864</v>
+        <v>0.901063562099356</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.932163299312883</v>
+        <v>0.9319697785663413</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>32012</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>23333</v>
+        <v>23188</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>42178</v>
+        <v>43425</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06624786831749822</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04828824035120015</v>
+        <v>0.0479877976331196</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08728699744817449</v>
+        <v>0.08986640373771174</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>46</v>
@@ -979,19 +979,19 @@
         <v>31461</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>22831</v>
+        <v>23700</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>40239</v>
+        <v>40593</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07446849125524896</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05404232076032067</v>
+        <v>0.05609897261084552</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09524695944452012</v>
+        <v>0.0960849170041375</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>85</v>
@@ -1000,19 +1000,19 @@
         <v>63473</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>51396</v>
+        <v>50521</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>77041</v>
+        <v>79640</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.07008253030590392</v>
+        <v>0.0700825303059039</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05674847307175514</v>
+        <v>0.05578228961899092</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08506367246507551</v>
+        <v>0.08793321101311039</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>451200</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>441034</v>
+        <v>439787</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>459879</v>
+        <v>460024</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9337521316825018</v>
+        <v>0.9337521316825017</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9127130025518253</v>
+        <v>0.9101335962622883</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9517117596487999</v>
+        <v>0.9520122023668803</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>543</v>
@@ -1050,19 +1050,19 @@
         <v>391013</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>382235</v>
+        <v>381881</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>399643</v>
+        <v>398774</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9255315087447511</v>
+        <v>0.925531508744751</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9047530405554799</v>
+        <v>0.9039150829958625</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9459576792396793</v>
+        <v>0.9439010273891548</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>985</v>
@@ -1071,19 +1071,19 @@
         <v>842213</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>828645</v>
+        <v>826046</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>854290</v>
+        <v>855165</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9299174696940963</v>
+        <v>0.9299174696940961</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9149363275349245</v>
+        <v>0.9120667889868893</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9432515269282449</v>
+        <v>0.9442177103810088</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>37462</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>27949</v>
+        <v>28203</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>50908</v>
+        <v>50380</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.07943371046144633</v>
+        <v>0.07943371046144632</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05926270750715727</v>
+        <v>0.0598017363278723</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1079455410329763</v>
+        <v>0.1068243101043108</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>44</v>
@@ -1196,19 +1196,19 @@
         <v>27724</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>20037</v>
+        <v>20805</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>36312</v>
+        <v>37072</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.147865023416456</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.106868170776793</v>
+        <v>0.1109596625231647</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1936690427092358</v>
+        <v>0.1977179379772941</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>91</v>
@@ -1217,19 +1217,19 @@
         <v>65186</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>52538</v>
+        <v>52891</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>80743</v>
+        <v>80701</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09890042292461027</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07971044688816953</v>
+        <v>0.08024622744140932</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1225036176548042</v>
+        <v>0.1224388579530886</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>434150</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>420704</v>
+        <v>421232</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>443663</v>
+        <v>443409</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9205662895385538</v>
+        <v>0.9205662895385537</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8920544589670236</v>
+        <v>0.8931756898956891</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9407372924928427</v>
+        <v>0.9401982636721277</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>245</v>
@@ -1267,19 +1267,19 @@
         <v>159773</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>151185</v>
+        <v>150425</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>167460</v>
+        <v>166692</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.852134976583544</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8063309572907643</v>
+        <v>0.8022820620227058</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.893131829223207</v>
+        <v>0.8890403374768353</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>686</v>
@@ -1288,19 +1288,19 @@
         <v>593923</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>578366</v>
+        <v>578408</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>606571</v>
+        <v>606218</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9010995770753898</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8774963823451958</v>
+        <v>0.8775611420469114</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9202895531118302</v>
+        <v>0.9197537725585907</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>88311</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>72083</v>
+        <v>72589</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>107548</v>
+        <v>106824</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07802414157327772</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06368627430405416</v>
+        <v>0.06413309989741617</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09502056792117715</v>
+        <v>0.09438025220525235</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>122</v>
@@ -1413,19 +1413,19 @@
         <v>78520</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>65170</v>
+        <v>65811</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>93233</v>
+        <v>94291</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09123675694356498</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07572445613548967</v>
+        <v>0.0764697467373254</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1083332662785994</v>
+        <v>0.1095624096602529</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>225</v>
@@ -1434,19 +1434,19 @@
         <v>166831</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>146663</v>
+        <v>145402</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>191408</v>
+        <v>190879</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.08373115198479547</v>
+        <v>0.08373115198479551</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07360929539200303</v>
+        <v>0.07297643150901306</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09606617382979801</v>
+        <v>0.09580072779005185</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>1043532</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1024295</v>
+        <v>1025019</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1059760</v>
+        <v>1059254</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9219758584267224</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9049794320788233</v>
+        <v>0.9056197477947476</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9363137256959461</v>
+        <v>0.9358669001025839</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1107</v>
@@ -1484,19 +1484,19 @@
         <v>782095</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>767382</v>
+        <v>766324</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>795445</v>
+        <v>794804</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9087632430564351</v>
+        <v>0.908763243056435</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8916667337214006</v>
+        <v>0.8904375903397471</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9242755438645107</v>
+        <v>0.9235302532626746</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2122</v>
@@ -1505,19 +1505,19 @@
         <v>1825627</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1801050</v>
+        <v>1801579</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1845795</v>
+        <v>1847056</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9162688480152043</v>
+        <v>0.9162688480152046</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9039338261702021</v>
+        <v>0.9041992722099469</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.926390704607997</v>
+        <v>0.9270235684909868</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>30643</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>21580</v>
+        <v>21396</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>43061</v>
+        <v>41590</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.05414978980885221</v>
+        <v>0.0541497898088522</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03813436237560792</v>
+        <v>0.03780861482059297</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.07609380150324253</v>
+        <v>0.07349488794610949</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>252</v>
@@ -1630,19 +1630,19 @@
         <v>145827</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>128013</v>
+        <v>128884</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>164613</v>
+        <v>162891</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1756680468195974</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1542090478952809</v>
+        <v>0.1552579114216601</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1982989077103318</v>
+        <v>0.196224035965262</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>290</v>
@@ -1651,19 +1651,19 @@
         <v>176470</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>155847</v>
+        <v>157950</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>196711</v>
+        <v>198151</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1264091458924702</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1116365208742134</v>
+        <v>0.1131426060256352</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1409079600505276</v>
+        <v>0.1419394439320047</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>535251</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>522833</v>
+        <v>524304</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>544314</v>
+        <v>544498</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9458502101911479</v>
+        <v>0.9458502101911477</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9239061984967576</v>
+        <v>0.9265051120538903</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9618656376243923</v>
+        <v>0.9621913851794068</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1037</v>
@@ -1701,19 +1701,19 @@
         <v>684300</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>665514</v>
+        <v>667236</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>702114</v>
+        <v>701243</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8243319531804028</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8017010922896683</v>
+        <v>0.8037759640347382</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.845790952104719</v>
+        <v>0.8447420885783399</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1544</v>
@@ -1722,19 +1722,19 @@
         <v>1219552</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1199311</v>
+        <v>1197871</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1240175</v>
+        <v>1238072</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8735908541075299</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8590920399494724</v>
+        <v>0.8580605560679953</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8883634791257866</v>
+        <v>0.8868573939743647</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>6454</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1935</v>
+        <v>1941</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>18532</v>
+        <v>20711</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.02720679712230463</v>
+        <v>0.02720679712230464</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.008156591172876782</v>
+        <v>0.008183050762900585</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07811749743906284</v>
+        <v>0.08730376593724325</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>222</v>
@@ -1847,19 +1847,19 @@
         <v>136225</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>119061</v>
+        <v>120231</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>154575</v>
+        <v>156840</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1613503291541029</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1410201294037991</v>
+        <v>0.1424059221800673</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1830848954917044</v>
+        <v>0.1857671247632405</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>228</v>
@@ -1868,19 +1868,19 @@
         <v>142679</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>123449</v>
+        <v>123974</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>161937</v>
+        <v>163675</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1319260934025259</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1141451177449297</v>
+        <v>0.1146308212914214</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1497324470936911</v>
+        <v>0.1513398952271229</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>230774</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>218696</v>
+        <v>216517</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>235293</v>
+        <v>235287</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9727932028776953</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9218825025609372</v>
+        <v>0.9126962340627569</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9918434088271232</v>
+        <v>0.9918169492370995</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>937</v>
@@ -1918,19 +1918,19 @@
         <v>708056</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>689706</v>
+        <v>687441</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>725220</v>
+        <v>724050</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8386496708458969</v>
+        <v>0.8386496708458971</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8169151045082953</v>
+        <v>0.8142328752367596</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8589798705962008</v>
+        <v>0.8575940778199328</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1043</v>
@@ -1939,19 +1939,19 @@
         <v>938830</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>919572</v>
+        <v>917834</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>958060</v>
+        <v>957535</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8680739065974743</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.850267552906309</v>
+        <v>0.8486601047728769</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8858548822550703</v>
+        <v>0.8853691787085782</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>234479</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>205995</v>
+        <v>208033</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>261739</v>
+        <v>261777</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06815429340339724</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0598752784586679</v>
+        <v>0.06046761792026472</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07607794057727874</v>
+        <v>0.07608888991733206</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>753</v>
@@ -2064,19 +2064,19 @@
         <v>466003</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>432937</v>
+        <v>432082</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>499580</v>
+        <v>500787</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.1282551940869491</v>
+        <v>0.128255194086949</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1191545991774481</v>
+        <v>0.1189191864301042</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1374962593447891</v>
+        <v>0.1378286146831608</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1031</v>
@@ -2085,19 +2085,19 @@
         <v>700482</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>657737</v>
+        <v>657653</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>747700</v>
+        <v>746933</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09902462777058242</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09298191120315208</v>
+        <v>0.09297004664810891</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1056997290338457</v>
+        <v>0.1055913447807739</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>3205928</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3178668</v>
+        <v>3178630</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3234412</v>
+        <v>3232374</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9318457065966028</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9239220594227218</v>
+        <v>0.9239111100826679</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9401247215413324</v>
+        <v>0.9395323820797354</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4488</v>
@@ -2135,19 +2135,19 @@
         <v>3167403</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3133826</v>
+        <v>3132619</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3200469</v>
+        <v>3201324</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8717448059130509</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.862503740655211</v>
+        <v>0.8621713853168392</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8808454008225518</v>
+        <v>0.8810808135698956</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>7508</v>
@@ -2156,19 +2156,19 @@
         <v>6373330</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6326112</v>
+        <v>6326879</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6416075</v>
+        <v>6416159</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9009753722294175</v>
+        <v>0.9009753722294174</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8943002709661542</v>
+        <v>0.8944086552192263</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9070180887968478</v>
+        <v>0.9070299533518911</v>
       </c>
     </row>
     <row r="24">
